--- a/Attendance/Attendance_05-03-2025.xlsx
+++ b/Attendance/Attendance_05-03-2025.xlsx
@@ -453,7 +453,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>00:20:02</t>
+          <t>00:45:26</t>
         </is>
       </c>
     </row>

--- a/Attendance/Attendance_05-03-2025.xlsx
+++ b/Attendance/Attendance_05-03-2025.xlsx
@@ -453,7 +453,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>00:45:26</t>
+          <t>01:18:11</t>
         </is>
       </c>
     </row>
